--- a/config/optimization_engine/config_optimization/ModelsML.xlsx
+++ b/config/optimization_engine/config_optimization/ModelsML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="10305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>Y3</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>process</t>
   </si>
@@ -34,36 +22,12 @@
     <t>name_process_model</t>
   </si>
   <si>
-    <t>target_model</t>
-  </si>
-  <si>
     <t>path_folder</t>
   </si>
   <si>
     <t>artifact_name</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A_Y1</t>
-  </si>
-  <si>
-    <t>B_Y2</t>
-  </si>
-  <si>
-    <t>B_Y3</t>
-  </si>
-  <si>
-    <t>C_Y2</t>
-  </si>
-  <si>
     <t>process_a</t>
   </si>
   <si>
@@ -80,6 +44,27 @@
   </si>
   <si>
     <t>custom</t>
+  </si>
+  <si>
+    <t>PR_A</t>
+  </si>
+  <si>
+    <t>PR_B</t>
+  </si>
+  <si>
+    <t>PR_C</t>
+  </si>
+  <si>
+    <t>PR_A_Y1</t>
+  </si>
+  <si>
+    <t>PR_B_Y2</t>
+  </si>
+  <si>
+    <t>PR_B_Y3</t>
+  </si>
+  <si>
+    <t>PR_C_Y2</t>
   </si>
 </sst>
 </file>
@@ -424,119 +409,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D5" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/config/optimization_engine/config_optimization/ModelsML.xlsx
+++ b/config/optimization_engine/config_optimization/ModelsML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="10905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,6 @@
     <t>process_b_y3</t>
   </si>
   <si>
-    <t>lr.pkl</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
     <t>PR_A</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>PR_C_Y2</t>
+  </si>
+  <si>
+    <t>model.pkl</t>
+  </si>
+  <si>
+    <t>model.xlsx</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,58 +439,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
